--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiXer\PycharmProjects\VapeShop Ver 2\DataBase\Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DA42E-1FF1-496B-A394-3693EED77744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t>BeNeFoT_TW</t>
-  </si>
-  <si>
-    <t>@Захар</t>
   </si>
   <si>
     <t>Уссурийск</t>
@@ -61,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,25 +112,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,9 +160,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,27 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,19 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,10 +441,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>999999</v>
+        <v>999805</v>
       </c>
       <c r="E2">
         <v>1660528172</v>
@@ -517,7 +459,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -525,7 +467,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>999999</v>
@@ -543,7 +485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -551,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>999999</v>
@@ -567,32 +509,6 @@
       </c>
       <c r="H4">
         <v>2.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>5630578321</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>BeNeFoT_TW</t>
+  </si>
+  <si>
+    <t>Диана</t>
+  </si>
+  <si>
+    <t>Dima</t>
+  </si>
+  <si>
+    <t>Sergo</t>
+  </si>
+  <si>
+    <t>Vladislav</t>
+  </si>
+  <si>
+    <t>Модератор TrueVaper</t>
   </si>
   <si>
     <t>Уссурийск</t>
@@ -404,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>999805</v>
+        <v>999399</v>
       </c>
       <c r="E2">
         <v>1660528172</v>
@@ -456,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>999999</v>
+        <v>999403</v>
       </c>
       <c r="E3">
         <v>5936453661</v>
@@ -493,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>999999</v>
+        <v>999201</v>
       </c>
       <c r="E4">
         <v>762129545</v>
@@ -509,6 +524,136 @@
       </c>
       <c r="H4">
         <v>2.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2070635547</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2007669808</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>775794026</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1312718832</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>5784359799</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiXer\PycharmProjects\VapeShop Ver 2\DataBase\Sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E4DF8-DA7F-4749-8CE1-463445A64690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -61,14 +67,32 @@
     <t>Модератор TrueVaper</t>
   </si>
   <si>
+    <t>𝗡𝗶𝗸𝗶𝘁𝗮</t>
+  </si>
+  <si>
+    <t>mommy_05</t>
+  </si>
+  <si>
+    <t>Kameri</t>
+  </si>
+  <si>
+    <t>Shihemi me vone</t>
+  </si>
+  <si>
+    <t>Захар</t>
+  </si>
+  <si>
     <t>Уссурийск</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,17 +151,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,9 +207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,14 +486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>999399</v>
+        <v>999559</v>
       </c>
       <c r="E2">
         <v>1660528172</v>
@@ -474,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>999403</v>
@@ -497,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>999201</v>
@@ -523,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -534,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -552,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -560,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -578,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -586,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -604,7 +677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -612,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -630,7 +703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -638,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -653,6 +726,136 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1134636872</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>985713767</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1273907302</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1170137469</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1271721297</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>5</v>
       </c>
     </row>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiXer\PycharmProjects\VapeShop Ver 2\DataBase\Sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E4DF8-DA7F-4749-8CE1-463445A64690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -43,56 +37,26 @@
     <t>Рейтинг</t>
   </si>
   <si>
+    <t>UserName2</t>
+  </si>
+  <si>
     <t>Ренат</t>
   </si>
   <si>
-    <t>х</t>
-  </si>
-  <si>
-    <t>BeNeFoT_TW</t>
-  </si>
-  <si>
-    <t>Диана</t>
-  </si>
-  <si>
-    <t>Dima</t>
-  </si>
-  <si>
-    <t>Sergo</t>
-  </si>
-  <si>
-    <t>Vladislav</t>
-  </si>
-  <si>
-    <t>Модератор TrueVaper</t>
-  </si>
-  <si>
-    <t>𝗡𝗶𝗸𝗶𝘁𝗮</t>
-  </si>
-  <si>
-    <t>mommy_05</t>
-  </si>
-  <si>
-    <t>Kameri</t>
-  </si>
-  <si>
-    <t>Shihemi me vone</t>
-  </si>
-  <si>
-    <t>Захар</t>
+    <t>Капибар</t>
   </si>
   <si>
     <t>Уссурийск</t>
   </si>
   <si>
-    <t>Иркутск</t>
+    <t>Boba9999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,25 +115,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,9 +163,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,27 +231,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,19 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,19 +435,22 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>999559</v>
+        <v>999779</v>
       </c>
       <c r="E2">
         <v>1660528172</v>
@@ -546,19 +464,22 @@
       <c r="H2">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>999403</v>
+        <v>999399</v>
       </c>
       <c r="E3">
         <v>5936453661</v>
@@ -570,292 +491,6 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>999201</v>
-      </c>
-      <c r="E4">
-        <v>762129545</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2070635547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>2007669808</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>775794026</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1312718832</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>5784359799</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1134636872</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>985713767</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1273907302</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1170137469</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1271721297</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
         <v>5</v>
       </c>
     </row>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -28,7 +28,7 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>Товары на продаже</t>
+    <t>Рефералы</t>
   </si>
   <si>
     <t>кол-во продаых товаров</t>
@@ -40,16 +40,40 @@
     <t>UserName2</t>
   </si>
   <si>
+    <t>refCode</t>
+  </si>
+  <si>
+    <t>UseRefCode</t>
+  </si>
+  <si>
     <t>Ренат</t>
   </si>
   <si>
     <t>Капибар</t>
   </si>
   <si>
+    <t>kilogramm#7777</t>
+  </si>
+  <si>
+    <t>Shihemi me vone</t>
+  </si>
+  <si>
     <t>Уссурийск</t>
   </si>
   <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
     <t>Boba9999999</t>
+  </si>
+  <si>
+    <t>ndryshojne_fatin</t>
+  </si>
+  <si>
+    <t>Dixer</t>
+  </si>
+  <si>
+    <t>Capi</t>
   </si>
 </sst>
 </file>
@@ -407,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,25 +462,31 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>999779</v>
+        <v>998129</v>
       </c>
       <c r="E2">
         <v>1660528172</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -465,33 +495,100 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>999399</v>
+        <v>999949</v>
       </c>
       <c r="E3">
         <v>5936453661</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1503031473</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1170137469</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -46,9 +46,6 @@
     <t>UseRefCode</t>
   </si>
   <si>
-    <t>Ренат</t>
-  </si>
-  <si>
     <t>Капибар</t>
   </si>
   <si>
@@ -64,16 +61,16 @@
     <t>Иркутск</t>
   </si>
   <si>
-    <t>Boba9999999</t>
-  </si>
-  <si>
     <t>ndryshojne_fatin</t>
   </si>
   <si>
+    <t>Capi</t>
+  </si>
+  <si>
+    <t>Kimon</t>
+  </si>
+  <si>
     <t>Dixer</t>
-  </si>
-  <si>
-    <t>Capi</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +474,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>998129</v>
+        <v>2301.12</v>
       </c>
       <c r="E2">
-        <v>1660528172</v>
+        <v>5936453661</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -494,14 +491,11 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,25 +509,19 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>999949</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5936453661</v>
+        <v>1503031473</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
         <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,13 +532,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="E4">
-        <v>1503031473</v>
+        <v>1170137469</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -561,34 +549,14 @@
       <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1170137469</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Sheets/UserData.xlsx
+++ b/DataBase/Sheets/UserData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -46,37 +46,55 @@
     <t>UseRefCode</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>Ренат</t>
+  </si>
+  <si>
     <t>Капибар</t>
   </si>
   <si>
-    <t>kilogramm#7777</t>
-  </si>
-  <si>
-    <t>Shihemi me vone</t>
+    <t>evsinji</t>
+  </si>
+  <si>
+    <t>BeNeFoT_TW</t>
   </si>
   <si>
     <t>Уссурийск</t>
   </si>
   <si>
-    <t>Иркутск</t>
-  </si>
-  <si>
-    <t>ndryshojne_fatin</t>
+    <t>Boba9999999</t>
+  </si>
+  <si>
+    <t>EgorBeLike</t>
+  </si>
+  <si>
+    <t>benefot</t>
   </si>
   <si>
     <t>Capi</t>
   </si>
   <si>
-    <t>Kimon</t>
-  </si>
-  <si>
-    <t>Dixer</t>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>BeNeFoT</t>
+  </si>
+  <si>
+    <t>Enabled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -129,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,25 +484,31 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>2301.12</v>
+        <v>2680</v>
       </c>
       <c r="E2">
-        <v>5936453661</v>
+        <v>1660528172</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -491,31 +516,37 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45021.97879533223</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E3">
-        <v>1503031473</v>
+        <v>5936453661</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -523,22 +554,34 @@
       <c r="H3">
         <v>5</v>
       </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44960.82237268519</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1170137469</v>
+        <v>1621397273</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -550,13 +593,60 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44959.63728842513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <v>762129545</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45022.64927392181</v>
       </c>
     </row>
   </sheetData>
